--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fzd6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.01838633333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.055159</v>
+      </c>
+      <c r="I2">
+        <v>0.003339500866342531</v>
+      </c>
+      <c r="J2">
+        <v>0.003339500866342531</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5.449420333333333</v>
-      </c>
-      <c r="H2">
-        <v>16.348261</v>
-      </c>
-      <c r="I2">
-        <v>0.8985142489564721</v>
-      </c>
-      <c r="J2">
-        <v>0.8985142489564723</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>12.81383</v>
+        <v>10.502639</v>
       </c>
       <c r="N2">
-        <v>38.44149</v>
+        <v>31.507917</v>
       </c>
       <c r="O2">
-        <v>0.9473986646189124</v>
+        <v>0.9701256668284471</v>
       </c>
       <c r="P2">
-        <v>0.9473986646189124</v>
+        <v>0.970125666828447</v>
       </c>
       <c r="Q2">
-        <v>69.82794574987668</v>
+        <v>0.1931050215336667</v>
       </c>
       <c r="R2">
-        <v>628.4515117488901</v>
+        <v>1.737945193803</v>
       </c>
       <c r="S2">
-        <v>0.8512511996024267</v>
+        <v>0.003239735504834725</v>
       </c>
       <c r="T2">
-        <v>0.8512511996024268</v>
+        <v>0.003239735504834724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.449420333333333</v>
+        <v>0.01838633333333333</v>
       </c>
       <c r="H3">
-        <v>16.348261</v>
+        <v>0.055159</v>
       </c>
       <c r="I3">
-        <v>0.8985142489564721</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="J3">
-        <v>0.8985142489564723</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.878162</v>
       </c>
       <c r="O3">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="P3">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="Q3">
-        <v>1.595157952920222</v>
+        <v>0.00538205975088889</v>
       </c>
       <c r="R3">
-        <v>14.356421576282</v>
+        <v>0.048438537758</v>
       </c>
       <c r="S3">
-        <v>0.01944608432048982</v>
+        <v>9.029516646234253E-05</v>
       </c>
       <c r="T3">
-        <v>0.01944608432048982</v>
+        <v>9.02951664623425E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.449420333333333</v>
+        <v>0.01838633333333333</v>
       </c>
       <c r="H4">
-        <v>16.348261</v>
+        <v>0.055159</v>
       </c>
       <c r="I4">
-        <v>0.8985142489564721</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="J4">
-        <v>0.8985142489564723</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.418727</v>
+        <v>0.03070066666666667</v>
       </c>
       <c r="N4">
-        <v>1.256181</v>
+        <v>0.092102</v>
       </c>
       <c r="O4">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="P4">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="Q4">
-        <v>2.281819427915667</v>
+        <v>0.000564472690888889</v>
       </c>
       <c r="R4">
-        <v>20.536374851241</v>
+        <v>0.005080254218</v>
       </c>
       <c r="S4">
-        <v>0.02781696503355557</v>
+        <v>9.470195045463901E-06</v>
       </c>
       <c r="T4">
-        <v>0.02781696503355557</v>
+        <v>9.470195045463901E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6155033333333333</v>
+        <v>5.449420333333333</v>
       </c>
       <c r="H5">
-        <v>1.84651</v>
+        <v>16.348261</v>
       </c>
       <c r="I5">
-        <v>0.1014857510435278</v>
+        <v>0.9897755900704113</v>
       </c>
       <c r="J5">
-        <v>0.1014857510435278</v>
+        <v>0.9897755900704112</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>12.81383</v>
+        <v>10.502639</v>
       </c>
       <c r="N5">
-        <v>38.44149</v>
+        <v>31.507917</v>
       </c>
       <c r="O5">
-        <v>0.9473986646189124</v>
+        <v>0.9701256668284471</v>
       </c>
       <c r="P5">
-        <v>0.9473986646189124</v>
+        <v>0.970125666828447</v>
       </c>
       <c r="Q5">
-        <v>7.886955077766667</v>
+        <v>57.23329452025967</v>
       </c>
       <c r="R5">
-        <v>70.9825956999</v>
+        <v>515.099650682337</v>
       </c>
       <c r="S5">
-        <v>0.09614746501648565</v>
+        <v>0.9602067043275775</v>
       </c>
       <c r="T5">
-        <v>0.09614746501648566</v>
+        <v>0.9602067043275773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6155033333333333</v>
+        <v>5.449420333333333</v>
       </c>
       <c r="H6">
-        <v>1.84651</v>
+        <v>16.348261</v>
       </c>
       <c r="I6">
-        <v>0.1014857510435278</v>
+        <v>0.9897755900704113</v>
       </c>
       <c r="J6">
-        <v>0.1014857510435278</v>
+        <v>0.9897755900704112</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.878162</v>
       </c>
       <c r="O6">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="P6">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="Q6">
-        <v>0.1801705460688889</v>
+        <v>1.595157952920222</v>
       </c>
       <c r="R6">
-        <v>1.62153491462</v>
+        <v>14.356421576282</v>
       </c>
       <c r="S6">
-        <v>0.002196404202173409</v>
+        <v>0.02676206871706924</v>
       </c>
       <c r="T6">
-        <v>0.002196404202173409</v>
+        <v>0.02676206871706923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.449420333333333</v>
+      </c>
+      <c r="H7">
+        <v>16.348261</v>
+      </c>
+      <c r="I7">
+        <v>0.9897755900704113</v>
+      </c>
+      <c r="J7">
+        <v>0.9897755900704112</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.03070066666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.092102</v>
+      </c>
+      <c r="O7">
+        <v>0.002835811525282158</v>
+      </c>
+      <c r="P7">
+        <v>0.002835811525282158</v>
+      </c>
+      <c r="Q7">
+        <v>0.1673008371802222</v>
+      </c>
+      <c r="R7">
+        <v>1.505707534622</v>
+      </c>
+      <c r="S7">
+        <v>0.002806817025764621</v>
+      </c>
+      <c r="T7">
+        <v>0.002806817025764621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03790633333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.113719</v>
+      </c>
+      <c r="I8">
+        <v>0.006884909063246366</v>
+      </c>
+      <c r="J8">
+        <v>0.006884909063246365</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.502639</v>
+      </c>
+      <c r="N8">
+        <v>31.507917</v>
+      </c>
+      <c r="O8">
+        <v>0.9701256668284471</v>
+      </c>
+      <c r="P8">
+        <v>0.970125666828447</v>
+      </c>
+      <c r="Q8">
+        <v>0.3981165348136667</v>
+      </c>
+      <c r="R8">
+        <v>3.583048813323</v>
+      </c>
+      <c r="S8">
+        <v>0.006679226996035101</v>
+      </c>
+      <c r="T8">
+        <v>0.006679226996035098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03790633333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.113719</v>
+      </c>
+      <c r="I9">
+        <v>0.006884909063246366</v>
+      </c>
+      <c r="J9">
+        <v>0.006884909063246365</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.6155033333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.84651</v>
-      </c>
-      <c r="I7">
-        <v>0.1014857510435278</v>
-      </c>
-      <c r="J7">
-        <v>0.1014857510435278</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.418727</v>
-      </c>
-      <c r="N7">
-        <v>1.256181</v>
-      </c>
-      <c r="O7">
-        <v>0.03095884685842432</v>
-      </c>
-      <c r="P7">
-        <v>0.03095884685842432</v>
-      </c>
-      <c r="Q7">
-        <v>0.2577278642566667</v>
-      </c>
-      <c r="R7">
-        <v>2.31955077831</v>
-      </c>
-      <c r="S7">
-        <v>0.003141881824868754</v>
-      </c>
-      <c r="T7">
-        <v>0.003141881824868754</v>
+      <c r="M9">
+        <v>0.2927206666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.878162</v>
+      </c>
+      <c r="O9">
+        <v>0.02703852164627077</v>
+      </c>
+      <c r="P9">
+        <v>0.02703852164627077</v>
+      </c>
+      <c r="Q9">
+        <v>0.01109596716422222</v>
+      </c>
+      <c r="R9">
+        <v>0.099863704478</v>
+      </c>
+      <c r="S9">
+        <v>0.0001861577627391927</v>
+      </c>
+      <c r="T9">
+        <v>0.0001861577627391926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03790633333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.113719</v>
+      </c>
+      <c r="I10">
+        <v>0.006884909063246366</v>
+      </c>
+      <c r="J10">
+        <v>0.006884909063246365</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03070066666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.092102</v>
+      </c>
+      <c r="O10">
+        <v>0.002835811525282158</v>
+      </c>
+      <c r="P10">
+        <v>0.002835811525282158</v>
+      </c>
+      <c r="Q10">
+        <v>0.001163749704222222</v>
+      </c>
+      <c r="R10">
+        <v>0.010473747338</v>
+      </c>
+      <c r="S10">
+        <v>1.952430447207363E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.952430447207363E-05</v>
       </c>
     </row>
   </sheetData>
